--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cambridge Technology Enterprises Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cambridge Technology Enterprises Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Yearly Results of Cambridge Technology Enterprises(in Rs. Cr.)</t>
   </si>
@@ -122,6 +122,51 @@
   </si>
   <si>
     <t>Mar '24</t>
+  </si>
+  <si>
+    <t>32.78</t>
+  </si>
+  <si>
+    <t>32.76</t>
+  </si>
+  <si>
+    <t>30.79</t>
+  </si>
+  <si>
+    <t>21.80</t>
+  </si>
+  <si>
+    <t>20.22</t>
+  </si>
+  <si>
+    <t>25.90</t>
+  </si>
+  <si>
+    <t>29.45</t>
+  </si>
+  <si>
+    <t>38.66</t>
+  </si>
+  <si>
+    <t>63.05</t>
+  </si>
+  <si>
+    <t>36.66</t>
+  </si>
+  <si>
+    <t>38.37</t>
+  </si>
+  <si>
+    <t>36.52</t>
+  </si>
+  <si>
+    <t>46.48</t>
+  </si>
+  <si>
+    <t>63.06</t>
+  </si>
+  <si>
+    <t>76.32</t>
   </si>
 </sst>
 </file>
@@ -554,8 +599,8 @@
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2">
-        <v>32.78</v>
+      <c r="B2" t="s">
+        <v>36</v>
       </c>
       <c r="C2">
         <v>32.78</v>
@@ -588,7 +633,7 @@
         <v>0.72</v>
       </c>
       <c r="M2">
-        <v>0.5935714285714285</v>
+        <v>0.59</v>
       </c>
       <c r="N2">
         <v>0.72</v>
@@ -603,24 +648,24 @@
         <v>35.32</v>
       </c>
       <c r="R2">
-        <v>1.480909090909091</v>
+        <v>1.48</v>
       </c>
       <c r="S2">
-        <v>1.480909090909091</v>
+        <v>1.48</v>
       </c>
       <c r="T2">
-        <v>1.480909090909091</v>
+        <v>1.48</v>
       </c>
       <c r="U2">
-        <v>1.480909090909091</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3">
-        <v>32.76</v>
+      <c r="B3" t="s">
+        <v>37</v>
       </c>
       <c r="C3">
         <v>32.76</v>
@@ -668,24 +713,24 @@
         <v>42.49</v>
       </c>
       <c r="R3">
-        <v>1.480909090909091</v>
+        <v>1.48</v>
       </c>
       <c r="S3">
-        <v>1.480909090909091</v>
+        <v>1.48</v>
       </c>
       <c r="T3">
-        <v>1.480909090909091</v>
+        <v>1.48</v>
       </c>
       <c r="U3">
-        <v>1.480909090909091</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
-        <v>30.79</v>
+      <c r="B4" t="s">
+        <v>38</v>
       </c>
       <c r="C4">
         <v>30.79</v>
@@ -730,27 +775,27 @@
         <v>19.63</v>
       </c>
       <c r="Q4">
-        <v>16.76285714285714</v>
+        <v>16.76</v>
       </c>
       <c r="R4">
-        <v>1.480909090909091</v>
+        <v>1.48</v>
       </c>
       <c r="S4">
-        <v>1.480909090909091</v>
+        <v>1.48</v>
       </c>
       <c r="T4">
-        <v>1.480909090909091</v>
+        <v>1.48</v>
       </c>
       <c r="U4">
-        <v>1.480909090909091</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
-        <v>21.8</v>
+      <c r="B5" t="s">
+        <v>39</v>
       </c>
       <c r="C5">
         <v>21.8</v>
@@ -798,24 +843,24 @@
         <v>-6.01</v>
       </c>
       <c r="R5">
-        <v>1.480909090909091</v>
+        <v>1.48</v>
       </c>
       <c r="S5">
-        <v>1.480909090909091</v>
+        <v>1.48</v>
       </c>
       <c r="T5">
-        <v>1.480909090909091</v>
+        <v>1.48</v>
       </c>
       <c r="U5">
-        <v>1.480909090909091</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="B6">
-        <v>20.22</v>
+      <c r="B6" t="s">
+        <v>40</v>
       </c>
       <c r="C6">
         <v>20.22</v>
@@ -879,8 +924,8 @@
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7">
-        <v>25.9</v>
+      <c r="B7" t="s">
+        <v>41</v>
       </c>
       <c r="C7">
         <v>25.9</v>
@@ -944,8 +989,8 @@
       <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8">
-        <v>29.45</v>
+      <c r="B8" t="s">
+        <v>42</v>
       </c>
       <c r="C8">
         <v>29.45</v>
@@ -1009,8 +1054,8 @@
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9">
-        <v>38.66</v>
+      <c r="B9" t="s">
+        <v>43</v>
       </c>
       <c r="C9">
         <v>38.66</v>
@@ -1074,8 +1119,8 @@
       <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B10">
-        <v>63.05</v>
+      <c r="B10" t="s">
+        <v>44</v>
       </c>
       <c r="C10">
         <v>63.05</v>
@@ -1139,8 +1184,8 @@
       <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11">
-        <v>36.66</v>
+      <c r="B11" t="s">
+        <v>45</v>
       </c>
       <c r="C11">
         <v>36.66</v>
@@ -1204,8 +1249,8 @@
       <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12">
-        <v>38.37</v>
+      <c r="B12" t="s">
+        <v>46</v>
       </c>
       <c r="C12">
         <v>38.37</v>
@@ -1269,8 +1314,8 @@
       <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13">
-        <v>36.52</v>
+      <c r="B13" t="s">
+        <v>47</v>
       </c>
       <c r="C13">
         <v>36.52</v>
@@ -1334,8 +1379,8 @@
       <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B14">
-        <v>46.48</v>
+      <c r="B14" t="s">
+        <v>48</v>
       </c>
       <c r="C14">
         <v>46.48</v>
@@ -1399,8 +1444,8 @@
       <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B15">
-        <v>63.06</v>
+      <c r="B15" t="s">
+        <v>49</v>
       </c>
       <c r="C15">
         <v>63.06</v>
@@ -1464,8 +1509,8 @@
       <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B16">
-        <v>76.31999999999999</v>
+      <c r="B16" t="s">
+        <v>50</v>
       </c>
       <c r="C16">
         <v>76.31999999999999</v>
